--- a/data/trans_camb/LAWTONB_2R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-6.711748458554662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10.01038070489279</v>
+        <v>10.01038070489278</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.777018287328679</v>
@@ -655,7 +655,7 @@
         <v>0.7702675396398018</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>21.2110426633999</v>
+        <v>21.21104266339989</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.951017903337024</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.350209498227366</v>
+        <v>-7.125736894054817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.511177778636</v>
+        <v>-16.99722818959682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.941103436569263</v>
+        <v>-1.733380764850793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.203854576140776</v>
+        <v>-1.808241530642297</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.207794210375694</v>
+        <v>-7.300771999225318</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.4122498124835</v>
+        <v>12.65416935181666</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.768286286768491</v>
+        <v>-2.600750107906767</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.414381127209639</v>
+        <v>-9.666206514864284</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.9069250117366</v>
+        <v>9.80910432168595</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.69023080110618</v>
+        <v>15.1254404012141</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.596402661075103</v>
+        <v>2.647795086232099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.93604163282752</v>
+        <v>23.17972752146293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.85796267469466</v>
+        <v>15.78070073220856</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.06333016172061</v>
+        <v>10.06952783195942</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>29.21707083562127</v>
+        <v>29.18981899422183</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.35315532779815</v>
+        <v>11.59169989961935</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.789660154399112</v>
+        <v>3.673694530335212</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.90031752930669</v>
+        <v>24.86316154617319</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2168201664029425</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3233810718018259</v>
+        <v>0.3233810718018255</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.164391880718167</v>
@@ -760,7 +760,7 @@
         <v>0.01868457839848249</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5145217332450256</v>
+        <v>0.5145217332450254</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1305542827559193</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2531193221160228</v>
+        <v>-0.1970755705169852</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4679774779065413</v>
+        <v>-0.4517855218192983</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.08318180469194482</v>
+        <v>-0.04383713570504887</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07083771718420741</v>
+        <v>-0.04108341917726991</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1776288819327637</v>
+        <v>-0.1612719614374813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2716951687999498</v>
+        <v>0.283573184717697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04474284213656605</v>
+        <v>-0.06476278498120985</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2232504140584156</v>
+        <v>-0.2341844284033854</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.26326071698702</v>
+        <v>0.2401265259159601</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.586109625103025</v>
+        <v>0.6206957987682457</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.101355385681596</v>
+        <v>0.1029218784928401</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9120804842293733</v>
+        <v>0.9074324127587772</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.439072889186824</v>
+        <v>0.4235479125078288</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2647748176449005</v>
+        <v>0.2706036861393007</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7920033140063462</v>
+        <v>0.7886277547742573</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3641465110867076</v>
+        <v>0.3241812347140077</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.08184384153938795</v>
+        <v>0.1124009035824388</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7257275864437152</v>
+        <v>0.7206419791777798</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-11.70414261011651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.016744335276012</v>
+        <v>-4.016744335276007</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>9.344243663153817</v>
@@ -869,7 +869,7 @@
         <v>5.549356089297391</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>14.54003809086602</v>
+        <v>14.54003809086603</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.510706574245558</v>
@@ -878,7 +878,7 @@
         <v>-1.976192166908436</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.03233295465937</v>
+        <v>7.032332954659376</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.24621938826136</v>
+        <v>-17.39100993910249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-21.57611585469345</v>
+        <v>-20.69745377323055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.42538679999794</v>
+        <v>-12.53548881625739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.723095578758677</v>
+        <v>0.2031648278495299</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.204340432636129</v>
+        <v>-3.262993283314936</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.626601300474891</v>
+        <v>6.189297347995544</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.70821333854814</v>
+        <v>-4.831937414608781</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.91789785009354</v>
+        <v>-8.533522268178645</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.350114177582754</v>
+        <v>1.511713258832019</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.334962360190538</v>
+        <v>2.090765096121517</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.826641464068253</v>
+        <v>-3.470534939844786</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.320754664024745</v>
+        <v>4.754392029820156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.76202000690306</v>
+        <v>17.78053285060652</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.86367822099463</v>
+        <v>15.35576520234119</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.38840320356009</v>
+        <v>21.43606160839468</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.133571786703186</v>
+        <v>9.132996376905481</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.923680664819729</v>
+        <v>5.581918921682166</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.72453210098704</v>
+        <v>12.47590352934512</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3665735864037538</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1258043776206544</v>
+        <v>-0.1258043776206542</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3209781615114976</v>
@@ -974,7 +974,7 @@
         <v>0.1906223959183576</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4994555860220504</v>
+        <v>0.4994555860220508</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.08269165769939775</v>
@@ -983,7 +983,7 @@
         <v>-0.06508709854449157</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2316141899973423</v>
+        <v>0.2316141899973425</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4638916908136231</v>
+        <v>-0.4645618801846297</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5757103649345825</v>
+        <v>-0.5605771318655287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3557349162525967</v>
+        <v>-0.3311747869706124</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0148455420130524</v>
+        <v>-0.003955998503111246</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1059909123401123</v>
+        <v>-0.09063446397080419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1867828706906311</v>
+        <v>0.1765399268603338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1345968233056941</v>
+        <v>-0.138204124529315</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2582517445681413</v>
+        <v>-0.2524033303699921</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.03784715436660698</v>
+        <v>0.04483289087878359</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.08175699172632112</v>
+        <v>0.08664360768414278</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1001782694658127</v>
+        <v>-0.1198523218534159</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1606934981825615</v>
+        <v>0.1932865436214382</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.780327367017394</v>
+        <v>0.7395932685596671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5888872954727101</v>
+        <v>0.6592573478207738</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8971242929661681</v>
+        <v>0.8753550300438434</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3514448370159874</v>
+        <v>0.3410799092065632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1891829389409842</v>
+        <v>0.1963847674783482</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4804505761609509</v>
+        <v>0.4717223050871363</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.750732547907513</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1130823308443385</v>
+        <v>0.1130823308443413</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.061261622790961</v>
@@ -1083,7 +1083,7 @@
         <v>7.157580644655709</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.47536063077397</v>
+        <v>8.475360630773965</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.060385034345188</v>
@@ -1092,7 +1092,7 @@
         <v>5.138209799501986</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.403815699548513</v>
+        <v>4.403815699548518</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.456287073165167</v>
+        <v>-2.590503507715007</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.483574924465987</v>
+        <v>-6.944746793809789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.453017561138138</v>
+        <v>-7.077458275032942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.537172589300027</v>
+        <v>-8.924001888443739</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.390305587471286</v>
+        <v>-3.043401873081082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.572192246770413</v>
+        <v>-1.320666187796235</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.106159108561966</v>
+        <v>-2.34825081072941</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.919940867140338</v>
+        <v>-2.193815376219812</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.813947635504593</v>
+        <v>-1.65602950841139</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.92769563000884</v>
+        <v>16.10664520477001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.91534672417481</v>
+        <v>10.490205846353</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.161213981178524</v>
+        <v>7.779697059463129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.75817502943207</v>
+        <v>11.93169330361201</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.06152007016303</v>
+        <v>18.49284314369265</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.39266184860795</v>
+        <v>16.65515087783434</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.33196044666182</v>
+        <v>12.02801863261675</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.18884776572593</v>
+        <v>12.49196419495908</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.45615337440267</v>
+        <v>10.26482995071385</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1028717606125974</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.006644634831309409</v>
+        <v>0.006644634831309572</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07214695842585339</v>
@@ -1188,7 +1188,7 @@
         <v>0.2505250510124293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2966491416284305</v>
+        <v>0.2966491416284303</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2217784488253065</v>
@@ -1197,7 +1197,7 @@
         <v>0.2251892279615826</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1930033798079917</v>
+        <v>0.1930033798079919</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09443435517441895</v>
+        <v>-0.1349891321840772</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3108873976172519</v>
+        <v>-0.3196371777656206</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3651749289412343</v>
+        <v>-0.3476888841738914</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2438880265853066</v>
+        <v>-0.2725522761771816</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.13805139083596</v>
+        <v>-0.09550743605530021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04015589702747828</v>
+        <v>-0.0360363431490183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09240288362660434</v>
+        <v>-0.09401631294441098</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1048106162757886</v>
+        <v>-0.09455623337399371</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.06437928522751375</v>
+        <v>-0.05649981126588015</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.373025183386575</v>
+        <v>1.21425888053392</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8960409786691651</v>
+        <v>0.8238136670120981</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5790884677725219</v>
+        <v>0.5899668972011876</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5364481529845884</v>
+        <v>0.5294166364339307</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7889433926307018</v>
+        <v>0.8500288782254344</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8004736640032787</v>
+        <v>0.7414046617942334</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6291649556769884</v>
+        <v>0.6309767197497312</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6444865253946174</v>
+        <v>0.6144997580743964</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5643728423167977</v>
+        <v>0.5492228877727481</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.197529097120161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.624530426117554</v>
+        <v>1.624530426117549</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.499460868464809</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.15195950646562</v>
+        <v>-15.59242872325754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.76714463857135</v>
+        <v>-17.68682117080157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.89402215733468</v>
+        <v>-14.21611060862158</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.05912103271029</v>
+        <v>-16.62801240883988</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-24.97904645984447</v>
+        <v>-25.17010619928234</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-20.61121962934609</v>
+        <v>-21.05718162695374</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.41607469882716</v>
+        <v>-11.43380796386139</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-16.45394616425507</v>
+        <v>-16.71303459616606</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-11.1533811197386</v>
+        <v>-10.60916188223814</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.3555343218825</v>
+        <v>14.30232021069023</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.25690891759958</v>
+        <v>9.356654270476824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.59304734594324</v>
+        <v>12.88621349799695</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.67725971705045</v>
+        <v>19.91525891107438</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.940962054149699</v>
+        <v>7.510956641608334</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.91397918502525</v>
+        <v>11.18846742932021</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.51716983255302</v>
+        <v>13.20982430241173</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.873612114222771</v>
+        <v>5.897517988241985</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.471192338790058</v>
+        <v>8.545975462674434</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1358808202002224</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.06903534574239863</v>
+        <v>0.06903534574239839</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08166724771256215</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5652860585911328</v>
+        <v>-0.5070580488255914</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5089693428205502</v>
+        <v>-0.5474459383316674</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.365306651758028</v>
+        <v>-0.3917736241112303</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3789660021185778</v>
+        <v>-0.3868698030147231</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.581023933706854</v>
+        <v>-0.6024161313675096</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.444392041201761</v>
+        <v>-0.4441512189658632</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3441069093583173</v>
+        <v>-0.3362560644997987</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4852106392685613</v>
+        <v>-0.4879737956517299</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3089624706447235</v>
+        <v>-0.297315006447351</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9424242881096639</v>
+        <v>0.9619964623360532</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7628791822267842</v>
+        <v>0.6586111382800611</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8869816499363076</v>
+        <v>0.915831031973476</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.051498303860136</v>
+        <v>1.132367304305454</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.47574589795889</v>
+        <v>0.4538553410950116</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6344924070593964</v>
+        <v>0.6206415231331268</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6533391523843</v>
+        <v>0.6719037049118579</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3033855310348902</v>
+        <v>0.292792954560257</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4535709192776668</v>
+        <v>0.4568157264632841</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-5.36580541190573</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.570601570997088</v>
+        <v>-1.570601570997082</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.52346196191466</v>
@@ -1511,7 +1511,7 @@
         <v>1.739600800347652</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>7.147089242517252</v>
+        <v>7.14708924251724</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.756503821817535</v>
@@ -1520,7 +1520,7 @@
         <v>-1.350713120170383</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.132135190608365</v>
+        <v>3.132135190608371</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.239258119428698</v>
+        <v>-5.295402829343947</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.15636962426484</v>
+        <v>-10.50152060307773</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.875301299182217</v>
+        <v>-6.636133931569852</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.112102217925818</v>
+        <v>-1.445643822858897</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.468430368748654</v>
+        <v>-3.360591304322079</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.740096986326174</v>
+        <v>2.673382537107429</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.188727511260681</v>
+        <v>-1.024744899357863</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.159512748402729</v>
+        <v>-5.333073047024254</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.0731774202836267</v>
+        <v>-0.07463008948818725</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.988821294920682</v>
+        <v>6.026587334983449</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.8044490070732584</v>
+        <v>-0.127087577729801</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.17036273482585</v>
+        <v>2.845647442814556</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.510238189637448</v>
+        <v>9.2168445091802</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.06168119502059</v>
+        <v>6.836904926103986</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.8791139528915</v>
+        <v>11.290717398193</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.443222128828276</v>
+        <v>6.762893710790588</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.093816463624118</v>
+        <v>2.459504520442752</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.372907940739698</v>
+        <v>6.233287652186668</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.203484251549525</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.05956099049878578</v>
+        <v>-0.05956099049878557</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1327762458934049</v>
@@ -1616,7 +1616,7 @@
         <v>0.05106214345738794</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2097870362736308</v>
+        <v>0.2097870362736305</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08947553400686395</v>
@@ -1625,7 +1625,7 @@
         <v>-0.04384386365103408</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.101668449193946</v>
+        <v>0.1016684491939462</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1823891395448245</v>
+        <v>-0.1866416746142524</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3654803454109711</v>
+        <v>-0.3571547748202935</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2311458130399685</v>
+        <v>-0.2238653620034875</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03076550234839839</v>
+        <v>-0.03932407726166428</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09899622708610044</v>
+        <v>-0.09159689449633344</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07568569083721104</v>
+        <v>0.07026522082117502</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0370570436899906</v>
+        <v>-0.03090546106724916</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1543168583589044</v>
+        <v>-0.1616746275001417</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.0009681759223224113</v>
+        <v>0.0006505014255378666</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2540075189542798</v>
+        <v>0.2518884442605366</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.02912149958053092</v>
+        <v>-0.005246916077872951</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1364299837047572</v>
+        <v>0.1214051505225353</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3024242322326043</v>
+        <v>0.2902515848985647</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.220857154261598</v>
+        <v>0.2212126310306031</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3786784983230989</v>
+        <v>0.3578435581772586</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2249619766870953</v>
+        <v>0.2370865589276544</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.07333859382297006</v>
+        <v>0.08644480320121099</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2246806813827713</v>
+        <v>0.2175810334887782</v>
       </c>
     </row>
     <row r="34">
